--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject23.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject23.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.76460947221058739</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -269,13 +269,13 @@
         <v>0</v>
       </c>
       <c r="AV1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="0">
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>0</v>
+        <v>0.91526130300004838</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.69272886259874888</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.62959088545012443</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.85132366798797587</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.68145515743739682</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.58437379285356106</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -532,18 +532,18 @@
         <v>0</v>
       </c>
       <c r="BO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.75784068339333077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.94975957313360326</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.8630633465823474</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.76157461180187425</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0.77490952843059702</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.59819376128136614</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.96424481294087583</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>0</v>
+        <v>0.74937488491684778</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.90701335075009082</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.83129309313690092</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.87950733384783963</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.89070493197407363</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>0</v>
+        <v>0.91622985281617886</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.81979106576023431</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.76918049925644949</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.54350380323909753</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.56199804332546166</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.75940606672185051</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.80547870237520303</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.66927134837117463</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.60497453162494197</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.82732689200458842</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.54207784296921224</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.63511219099235783</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>0.88159814053032126</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>0</v>
+        <v>0.6504269760912732</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.67459534508937979</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.99475176926649023</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.60427807508985243</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.5552165086947225</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.80505412896388795</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.63233905612391683</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.62327411129989652</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.99499636192007634</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.53853939474130774</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.84925147818846658</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.50583448471682657</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.64040784228808789</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.52462088648201566</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.97545220301880775</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.93255538630356538</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="0">
-        <v>0</v>
+        <v>0.82022924239221706</v>
       </c>
       <c r="BJ12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.99148301939685335</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.77068758365779999</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.55016206867906647</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.57215956754964714</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.90395467356828108</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.72365467254557025</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.97184194742359808</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.83416074375067717</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -3048,22 +3048,22 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.56716566879408103</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.6332646469312071</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.86712428985761347</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.92892573103983689</v>
       </c>
       <c r="R15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="0">
-        <v>0</v>
+        <v>0.52452117065180071</v>
       </c>
       <c r="AY15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.74567965612901199</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.85983036832464432</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.83775461121460082</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.70312762118045424</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.71566391730250811</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.82656597972089241</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.84233678280989199</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0</v>
+        <v>0.51118683427024303</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0">
         <v>0</v>
@@ -3672,22 +3672,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.90384538516084523</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.51973333255117948</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.5067720974447103</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.7957713612506836</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>0</v>
+        <v>0.51658936262869215</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0</v>
+        <v>0.98741791018325409</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.68170651324177156</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.76810875145275159</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.98731988729527753</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.56499103723795441</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>0</v>
+        <v>0.64642478462862574</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.52390429079412115</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.88696829544559674</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.76276995828424954</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.97351737965439344</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.81536706093901024</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.7316263993561346</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.5418225694797757</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.51036599770168745</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.65657242177938424</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.90590052198775184</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.97514356832091265</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.87951815068394346</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.95303860754240799</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.89929129905176919</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.50572235769284668</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0</v>
+        <v>0.74875674867081343</v>
       </c>
       <c r="AF24" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.90036597539193186</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.63750898661955824</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.87575628935775096</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.82569608688177332</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.62900802843552683</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.86561127193388743</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.70007071791873421</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.60570145320726643</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.77460258902956525</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.71431257290732675</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.58031908514736918</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.58972055189174755</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.8257500951028145</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.93306488090657169</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.55478607676578373</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0</v>
+        <v>0.59657765167567645</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.64720172031940382</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.7631015759177624</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.82186767596201493</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.93831742695440756</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="0">
-        <v>1</v>
+        <v>0.74666863491823898</v>
       </c>
       <c r="AN29" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>0</v>
+        <v>0.77620907905036318</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.63320325127126809</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.85502908907268527</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.73826007039365849</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.90647615979514673</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0</v>
+        <v>0.63958284824032297</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>0</v>
+        <v>0.69057289398574295</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.53322306416246867</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.83193845426726498</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.89394166613047576</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.62393190459397108</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.74208079880528177</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.64734826851184657</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.60635323581278089</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="0">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.64712572137188606</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.54706649409785113</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0</v>
+        <v>0.9923821193803708</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="BP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.87429719965860586</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.71151006688242835</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.64066770253858829</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.91738020063571435</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.72659572497346137</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.94683360782084147</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="0">
-        <v>0</v>
+        <v>0.74574671144421845</v>
       </c>
       <c r="BB35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.87411189659023103</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.92292756026168155</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.60829856716746278</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.8927231434573123</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.97357847750208093</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.69137951065849923</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.71925386581898598</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.66514804759667023</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.53658090362290223</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.51057778793545494</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>0</v>
+        <v>0.6817404436928467</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>0</v>
+        <v>0.66368516960571022</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="0">
-        <v>1</v>
+        <v>0.95017477870606482</v>
       </c>
       <c r="AD39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.80129853229409453</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.91665233085125242</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.7769998310288031</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.51792754562914567</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.60774296517571003</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.93695303957918297</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.91997462423543408</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.72745782296963712</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.96405450333462128</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.63367519006856554</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8670,13 +8670,13 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0</v>
+        <v>0.64207701862201971</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.60501708256758591</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.66760937036353862</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.58925724882005737</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.96555719745906199</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8873,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.88058085090526883</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.6606593506903109</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.97709087067885814</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.72658460148717374</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>0.71042971719664916</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.6678739862961085</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.51193299676188797</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.69563017100140168</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0.63952452584296338</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.7993310449471418</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.63169177546911581</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.85264067332550453</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.56927702235256694</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.7725344603790445</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.54640565326402357</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.93686570481157461</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.64514887659773068</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.76632375930032992</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.60398925272112303</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.74023160131551125</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.64563021634817197</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="0">
         <v>0</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.81229017763342726</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.61114514670753073</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.5424192654282054</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>0</v>
+        <v>0.69646950284555764</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>0</v>
+        <v>0.73659698203109447</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.76803461067719714</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.88286911681858915</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>0.95124717916822277</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>0</v>
+        <v>0.53286138296319374</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="0">
-        <v>0</v>
+        <v>0.92843669511774685</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.5623790913923763</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.75954145944312046</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="0">
-        <v>0</v>
+        <v>0.6535528113778124</v>
       </c>
       <c r="AM51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.61971337484616595</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.63600534179281354</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.73872026408474745</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.7338862566645068</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>0</v>
+        <v>0.63552420159934442</v>
       </c>
       <c r="AJ53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.99767406829417249</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.91189833613852</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.81377556021103725</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>0</v>
+        <v>0.71976540175810466</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.58750014058879052</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.71659976747453724</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.78098358420188541</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.53643555015322808</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.70777625779796072</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.97281959832394704</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.68404587958598384</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.98275765336138243</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.95956060144892208</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.95542653713106729</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.95764717457550608</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.72082774884285872</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11826,22 +11826,22 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.58334121801297023</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.7374301474450552</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.56581778543054395</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.50276340801516661</v>
       </c>
       <c r="BH57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.56917469710793078</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.7337735736758999</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.75148258941213575</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.98804066731403362</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.92333636033785527</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.91938371606897062</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.6507235837596852</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.92540015378917706</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12444,28 +12444,28 @@
         <v>0</v>
       </c>
       <c r="BC60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60" s="0">
         <v>0</v>
       </c>
       <c r="BE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.91972829133098322</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.6430459764802019</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.89836058187620793</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.92874437312667901</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>0</v>
+        <v>0.87775065159688714</v>
       </c>
       <c r="M61" s="0">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.53634285269171755</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.69209532836589327</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.6678457716861872</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>0.81421670409800639</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.63312449754717881</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.96663425117568624</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,16 +12880,16 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.65198011366534336</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="0">
         <v>0</v>
@@ -13080,25 +13080,25 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.63445377845793038</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.66065300255349446</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.67263551280588996</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.85566700252820715</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.6371354296769669</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.54725038618365951</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.66475705213108727</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.96181100265626585</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.6115868137526449</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.87115387893900009</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.94349348181256243</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13701,33 +13701,33 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.51764529162914652</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.94665974932470776</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.98840658821063587</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.780343705060625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.92259858592233934</v>
       </c>
       <c r="B67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13910,30 +13910,30 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.96646641529645405</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.81909329041243084</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.93796756267585779</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.64521153306112378</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.76623199824352672</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="AG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.65518189361710444</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.78121778663905728</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject23.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject23.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.76460947221058739</v>
+        <v>0.94975957313360326</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -275,7 +275,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>0.91526130300004838</v>
+        <v>0.95124717916822277</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0.69272886259874888</v>
+        <v>0.7338862566645068</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.62959088545012443</v>
+        <v>0.92259858592233934</v>
       </c>
       <c r="BP1" s="0">
         <v>0.85132366798797587</v>
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.68145515743739682</v>
+        <v>0.8630633465823474</v>
       </c>
       <c r="D2" s="0">
-        <v>0.58437379285356106</v>
+        <v>0.59819376128136614</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.75784068339333077</v>
+        <v>0.76623199824352672</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.76157461180187425</v>
+        <v>0.90701335075009082</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.90701335075009082</v>
       </c>
       <c r="D5" s="0">
-        <v>0.83129309313690092</v>
+        <v>0.96424481294087583</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.81979106576023431</v>
+        <v>0.87950733384783963</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.76918049925644949</v>
       </c>
       <c r="H6" s="0">
-        <v>0.54350380323909753</v>
+        <v>0.82732689200458842</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.56199804332546166</v>
+        <v>0.89070493197407363</v>
       </c>
       <c r="F7" s="0">
-        <v>0.75940606672185051</v>
+        <v>0.76918049925644949</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.80547870237520303</v>
       </c>
       <c r="I7" s="0">
-        <v>0.66927134837117463</v>
+        <v>0.67459534508937979</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.82732689200458842</v>
       </c>
       <c r="G8" s="0">
-        <v>0.54207784296921224</v>
+        <v>0.80547870237520303</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0.88159814053032126</v>
+        <v>0.98741791018325409</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.6504269760912732</v>
+        <v>0.66368516960571022</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.99475176926649023</v>
       </c>
       <c r="K9" s="0">
-        <v>0.60427807508985243</v>
+        <v>0.99499636192007634</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.5552165086947225</v>
+        <v>0.63511219099235783</v>
       </c>
       <c r="I10" s="0">
-        <v>0.80505412896388795</v>
+        <v>0.99475176926649023</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0.63233905612391683</v>
       </c>
       <c r="L10" s="0">
-        <v>0.62327411129989652</v>
+        <v>0.64040784228808789</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.99499636192007634</v>
       </c>
       <c r="J11" s="0">
-        <v>0.53853939474130774</v>
+        <v>0.63233905612391683</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.84925147818846658</v>
       </c>
       <c r="M11" s="0">
-        <v>0.50583448471682657</v>
+        <v>0.99148301939685335</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0.64040784228808789</v>
       </c>
       <c r="K12" s="0">
-        <v>0.52462088648201566</v>
+        <v>0.84925147818846658</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="0">
-        <v>0.82022924239221706</v>
+        <v>0.87775065159688714</v>
       </c>
       <c r="BJ12" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0.99148301939685335</v>
       </c>
       <c r="L13" s="0">
-        <v>0.77068758365779999</v>
+        <v>0.97545220301880775</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.55016206867906647</v>
+        <v>0.72365467254557025</v>
       </c>
       <c r="O13" s="0">
         <v>0.57215956754964714</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.90395467356828108</v>
+        <v>0.93255538630356538</v>
       </c>
       <c r="M14" s="0">
         <v>0.72365467254557025</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.56716566879408103</v>
+        <v>0.57215956754964714</v>
       </c>
       <c r="N15" s="0">
-        <v>0.6332646469312071</v>
+        <v>0.97184194742359808</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="0">
-        <v>0.52452117065180071</v>
+        <v>0.92843669511774685</v>
       </c>
       <c r="AY15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.74567965612901199</v>
+        <v>0.83416074375067717</v>
       </c>
       <c r="O16" s="0">
-        <v>0.85983036832464432</v>
+        <v>0.86712428985761347</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0.83775461121460082</v>
       </c>
       <c r="R16" s="0">
-        <v>0.70312762118045424</v>
+        <v>0.90384538516084523</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.71566391730250811</v>
+        <v>0.92892573103983689</v>
       </c>
       <c r="P17" s="0">
-        <v>0.82656597972089241</v>
+        <v>0.83775461121460082</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.51118683427024303</v>
+        <v>0.63958284824032297</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0.90384538516084523</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.51973333255117948</v>
+        <v>0.84233678280989199</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.5067720974447103</v>
+        <v>0.68170651324177156</v>
       </c>
       <c r="T18" s="0">
-        <v>0.7957713612506836</v>
+        <v>0.98731988729527753</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>0.51658936262869215</v>
+        <v>0.73659698203109447</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.56499103723795441</v>
+        <v>0.97351737965439344</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.64642478462862574</v>
+        <v>0.77620907905036318</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.52390429079412115</v>
+        <v>0.76810875145275159</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0.97351737965439344</v>
       </c>
       <c r="U22" s="0">
-        <v>0.81536706093901024</v>
+        <v>0.88696829544559674</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.7316263993561346</v>
       </c>
       <c r="X22" s="0">
-        <v>0.5418225694797757</v>
+        <v>0.87951815068394346</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.51036599770168745</v>
+        <v>0.76276995828424954</v>
       </c>
       <c r="V23" s="0">
-        <v>0.65657242177938424</v>
+        <v>0.7316263993561346</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.90590052198775184</v>
+        <v>0.95303860754240799</v>
       </c>
       <c r="Y23" s="0">
         <v>0.97514356832091265</v>
@@ -4941,7 +4941,7 @@
         <v>0.89929129905176919</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.50572235769284668</v>
+        <v>0.62900802843552683</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.90036597539193186</v>
+        <v>0.97514356832091265</v>
       </c>
       <c r="X25" s="0">
-        <v>0.63750898661955824</v>
+        <v>0.89929129905176919</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0.62900802843552683</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.86561127193388743</v>
+        <v>0.87575628935775096</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0.60570145320726643</v>
+        <v>0.92333636033785527</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.77460258902956525</v>
+        <v>0.82569608688177332</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.71431257290732675</v>
+        <v>0.8257500951028145</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.58031908514736918</v>
+        <v>0.64720172031940382</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.58972055189174755</v>
+        <v>0.70007071791873421</v>
       </c>
       <c r="AA28" s="0">
         <v>0.8257500951028145</v>
@@ -5777,7 +5777,7 @@
         <v>0.93306488090657169</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.55478607676578373</v>
+        <v>0.63320325127126809</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0.59657765167567645</v>
+        <v>0.71042971719664916</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0.64720172031940382</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.7631015759177624</v>
+        <v>0.93306488090657169</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.82186767596201493</v>
+        <v>0.85502908907268527</v>
       </c>
       <c r="AE29" s="0">
         <v>0.93831742695440756</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="0">
-        <v>0.74666863491823898</v>
+        <v>0.95017477870606482</v>
       </c>
       <c r="AN29" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.73826007039365849</v>
+        <v>0.83193845426726498</v>
       </c>
       <c r="AF30" s="0">
         <v>0.90647615979514673</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0">
-        <v>0.69057289398574295</v>
+        <v>0.74875674867081343</v>
       </c>
       <c r="Y31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.53322306416246867</v>
+        <v>0.93831742695440756</v>
       </c>
       <c r="AD31" s="0">
         <v>0.83193845426726498</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.62393190459397108</v>
+        <v>0.90647615979514673</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.74208079880528177</v>
+        <v>0.89394166613047576</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.64734826851184657</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.60635323581278089</v>
+        <v>0.87429719965860586</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.64712572137188606</v>
+        <v>0.64734826851184657</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.54706649409785113</v>
+        <v>0.71151006688242835</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.64066770253858829</v>
+        <v>0.72659572497346137</v>
       </c>
       <c r="AJ34" s="0">
         <v>0.91738020063571435</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.87411189659023103</v>
+        <v>0.91738020063571435</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.92292756026168155</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.60829856716746278</v>
+        <v>0.71925386581898598</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.8927231434573123</v>
+        <v>0.92292756026168155</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.97357847750208093</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.69137951065849923</v>
+        <v>0.80129853229409453</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0.71925386581898598</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.66514804759667023</v>
+        <v>0.97357847750208093</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.53658090362290223</v>
+        <v>0.91665233085125242</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.51057778793545494</v>
+        <v>0.51792754562914567</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.7769998310288031</v>
+        <v>0.91997462423543408</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.60774296517571003</v>
+        <v>0.72745782296963712</v>
       </c>
       <c r="AP40" s="0">
         <v>0.93695303957918297</v>
@@ -8494,7 +8494,7 @@
         <v>0.96405450333462128</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.63367519006856554</v>
+        <v>0.88058085090526883</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0.64207701862201971</v>
+        <v>0.9923821193803708</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.60501708256758591</v>
+        <v>0.93695303957918297</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.66760937036353862</v>
+        <v>0.96405450333462128</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.58925724882005737</v>
+        <v>0.6606593506903109</v>
       </c>
       <c r="AR42" s="0">
         <v>0.96555719745906199</v>
@@ -8912,7 +8912,7 @@
         <v>0.97709087067885814</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.72658460148717374</v>
+        <v>0.7993310449471418</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.6678739862961085</v>
+        <v>0.96555719745906199</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.51193299676188797</v>
+        <v>0.97709087067885814</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>0.63952452584296338</v>
+        <v>0.77490952843059702</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0.7993310449471418</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.63169177546911581</v>
+        <v>0.69563017100140168</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.85264067332550453</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.56927702235256694</v>
+        <v>0.76632375930032992</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.7725344603790445</v>
+        <v>0.85264067332550453</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.54640565326402357</v>
+        <v>0.60398925272112303</v>
       </c>
       <c r="AV46" s="0">
         <v>0.93686570481157461</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0.64514887659773068</v>
+        <v>0.94683360782084147</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.74023160131551125</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.64563021634817197</v>
+        <v>0.76803461067719714</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.81229017763342726</v>
+        <v>0.93686570481157461</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.61114514670753073</v>
+        <v>0.74023160131551125</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.5424192654282054</v>
+        <v>0.5623790913923763</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>0.69646950284555764</v>
+        <v>0.71976540175810466</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>0.53286138296319374</v>
+        <v>0.74937488491684778</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.5623790913923763</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.75954145944312046</v>
+        <v>0.88286911681858915</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="0">
-        <v>0.6535528113778124</v>
+        <v>0.6817404436928467</v>
       </c>
       <c r="AM51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0.61971337484616595</v>
+        <v>0.63312449754717881</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.63600534179281354</v>
+        <v>0.99767406829417249</v>
       </c>
       <c r="BB52" s="0">
         <v>0.73872026408474745</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>0.63552420159934442</v>
+        <v>0.74574671144421845</v>
       </c>
       <c r="AJ53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.58750014058879052</v>
+        <v>0.73872026408474745</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.71659976747453724</v>
+        <v>0.91189833613852</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.78098358420188541</v>
+        <v>0.97281959832394704</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.53643555015322808</v>
+        <v>0.95956060144892208</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.70777625779796072</v>
+        <v>0.81377556021103725</v>
       </c>
       <c r="BB55" s="0">
         <v>0.97281959832394704</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.68404587958598384</v>
+        <v>0.95542653713106729</v>
       </c>
       <c r="BE55" s="0">
         <v>0.98275765336138243</v>
@@ -11629,7 +11629,7 @@
         <v>0.95764717457550608</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.72082774884285872</v>
+        <v>0.7337735736758999</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.58334121801297023</v>
+        <v>0.98275765336138243</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.7374301474450552</v>
+        <v>0.95764717457550608</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.56581778543054395</v>
+        <v>0.75148258941213575</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.50276340801516661</v>
+        <v>0.91938371606897062</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0.56917469710793078</v>
+        <v>0.60497453162494197</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.91972829133098322</v>
+        <v>0.98804066731403362</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.6430459764802019</v>
+        <v>0.6507235837596852</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0.89836058187620793</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.92874437312667901</v>
+        <v>0.96663425117568624</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.53634285269171755</v>
+        <v>0.92540015378917706</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.69209532836589327</v>
+        <v>0.89836058187620793</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.81421670409800639</v>
+        <v>0.91622985281617886</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.65198011366534336</v>
+        <v>0.66065300255349446</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.63445377845793038</v>
+        <v>0.6678457716861872</v>
       </c>
       <c r="BJ63" s="0">
         <v>0.66065300255349446</v>
@@ -13092,7 +13092,7 @@
         <v>0.67263551280588996</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.85566700252820715</v>
+        <v>0.96181100265626585</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.6371354296769669</v>
+        <v>0.67263551280588996</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.54725038618365951</v>
+        <v>0.6115868137526449</v>
       </c>
       <c r="BN64" s="0">
         <v>0.66475705213108727</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.87115387893900009</v>
+        <v>0.94665974932470776</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.94349348181256243</v>
+        <v>0.96646641529645405</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.51764529162914652</v>
+        <v>0.66475705213108727</v>
       </c>
       <c r="BM66" s="0">
         <v>0.94665974932470776</v>
@@ -13919,7 +13919,7 @@
         <v>0.96646641529645405</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.81909329041243084</v>
+        <v>0.98840658821063587</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.64521153306112378</v>
+        <v>0.85132366798797587</v>
       </c>
       <c r="B68" s="0">
         <v>0.76623199824352672</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.65518189361710444</v>
+        <v>0.780343705060625</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.78121778663905728</v>
+        <v>0.93796756267585779</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
